--- a/December2020/KALER.xlsx
+++ b/December2020/KALER.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830"/>
+    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RAJA MOBILE CENTER-(661032976)" sheetId="1" r:id="rId1"/>
     <sheet name="KALLU DOWNLOADING-(661066808)" sheetId="3" r:id="rId2"/>
     <sheet name="NAVEEN MOB CENTRE-(660903120)" sheetId="4" r:id="rId3"/>
+    <sheet name="SANTOSH PUSTAK BHAN-(661063900)" sheetId="5" r:id="rId4"/>
+    <sheet name="Glaxy Mobile Studio-(660587311)" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="17">
   <si>
     <t>RAJA MOBILE CENTER-(661032976)</t>
   </si>
@@ -54,13 +56,19 @@
     <t>Auto</t>
   </si>
   <si>
+    <t>Digital</t>
+  </si>
+  <si>
     <t>KALLU JI DOWN LOADING CENTRE-(661066808)</t>
   </si>
   <si>
     <t>NAVEEN MOBILE CENTRE-(660903120)</t>
   </si>
   <si>
-    <t>Digital</t>
+    <t>SANTOSH PUSTAK BHANDAR-(661063900)</t>
+  </si>
+  <si>
+    <t>Glaxy Mobile and Digital Studio-(660587311)</t>
   </si>
 </sst>
 </file>
@@ -69,10 +77,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -89,6 +97,127 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -98,98 +227,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,37 +240,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -260,31 +268,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,151 +406,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,17 +486,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,11 +512,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,19 +530,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,20 +550,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -574,134 +582,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -719,6 +727,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1056,26 +1067,26 @@
   <sheetPr/>
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17" style="7" customWidth="1"/>
-    <col min="2" max="2" width="18" style="7" customWidth="1"/>
-    <col min="3" max="4" width="16.8571428571429" style="7" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="7" customWidth="1"/>
-    <col min="6" max="6" width="14" style="7" customWidth="1"/>
-    <col min="7" max="16382" width="9.14285714285714" style="7"/>
-    <col min="16383" max="16384" width="9.14285714285714" style="8"/>
+    <col min="1" max="1" width="17" style="8" customWidth="1"/>
+    <col min="2" max="2" width="18" style="8" customWidth="1"/>
+    <col min="3" max="4" width="16.8571428571429" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17.2857142857143" style="8" customWidth="1"/>
+    <col min="6" max="6" width="14" style="8" customWidth="1"/>
+    <col min="7" max="16382" width="9.14285714285714" style="8"/>
+    <col min="16383" max="16384" width="9.14285714285714" style="9"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="10"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="4" t="s">
@@ -1164,47 +1175,69 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" s="7" customFormat="1" spans="1:5">
+    <row r="8" s="8" customFormat="1" spans="1:5">
       <c r="A8" s="5">
         <v>44171</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="8">
         <v>3120</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="8">
         <v>6000</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" s="7" customFormat="1" spans="1:1">
-      <c r="A9" s="10"/>
-    </row>
-    <row r="10" s="7" customFormat="1" spans="1:1">
-      <c r="A10" s="10"/>
-    </row>
-    <row r="11" s="7" customFormat="1" spans="1:1">
-      <c r="A11" s="10"/>
-    </row>
-    <row r="12" s="7" customFormat="1" spans="1:1">
-      <c r="A12" s="10"/>
-    </row>
-    <row r="13" s="7" customFormat="1"/>
-    <row r="14" s="7" customFormat="1"/>
-    <row r="15" s="7" customFormat="1"/>
-    <row r="16" s="8" customFormat="1"/>
-    <row r="17" s="8" customFormat="1"/>
-    <row r="18" s="8" customFormat="1"/>
-    <row r="19" s="8" customFormat="1"/>
-    <row r="20" s="8" customFormat="1"/>
-    <row r="21" s="8" customFormat="1"/>
-    <row r="22" s="8" customFormat="1"/>
-    <row r="23" s="8" customFormat="1"/>
-    <row r="24" s="8" customFormat="1"/>
-    <row r="25" s="7" customFormat="1"/>
-    <row r="26" s="7" customFormat="1"/>
-    <row r="27" s="7" customFormat="1"/>
+    <row r="9" s="8" customFormat="1" spans="1:5">
+      <c r="A9" s="5">
+        <v>44172</v>
+      </c>
+      <c r="C9" s="8">
+        <v>6000</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" s="8" customFormat="1" spans="1:5">
+      <c r="A10" s="5">
+        <v>44173</v>
+      </c>
+      <c r="B10" s="8">
+        <v>5200</v>
+      </c>
+      <c r="D10" s="8">
+        <v>5000</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" s="8" customFormat="1" spans="1:1">
+      <c r="A11" s="11"/>
+    </row>
+    <row r="12" s="8" customFormat="1" spans="1:1">
+      <c r="A12" s="11"/>
+    </row>
+    <row r="13" s="8" customFormat="1"/>
+    <row r="14" s="8" customFormat="1"/>
+    <row r="15" s="8" customFormat="1"/>
+    <row r="16" s="9" customFormat="1"/>
+    <row r="17" s="9" customFormat="1"/>
+    <row r="18" s="9" customFormat="1"/>
+    <row r="19" s="9" customFormat="1"/>
+    <row r="20" s="9" customFormat="1"/>
+    <row r="21" s="9" customFormat="1"/>
+    <row r="22" s="9" customFormat="1"/>
+    <row r="23" s="9" customFormat="1"/>
+    <row r="24" s="9" customFormat="1"/>
+    <row r="25" s="8" customFormat="1"/>
+    <row r="26" s="8" customFormat="1"/>
+    <row r="27" s="8" customFormat="1"/>
     <row r="28" customFormat="1"/>
     <row r="29" customFormat="1"/>
     <row r="30" customFormat="1"/>
@@ -1217,40 +1250,40 @@
     <row r="37" customFormat="1"/>
     <row r="38" customFormat="1"/>
     <row r="39" customFormat="1"/>
-    <row r="40" s="7" customFormat="1"/>
-    <row r="41" s="7" customFormat="1"/>
-    <row r="42" s="7" customFormat="1"/>
+    <row r="40" s="8" customFormat="1"/>
+    <row r="41" s="8" customFormat="1"/>
+    <row r="42" s="8" customFormat="1"/>
     <row r="43" customFormat="1"/>
     <row r="44" customFormat="1"/>
     <row r="45" customFormat="1"/>
     <row r="46" customFormat="1"/>
     <row r="47" customFormat="1"/>
-    <row r="48" s="7" customFormat="1" spans="1:1">
-      <c r="A48" s="10"/>
-    </row>
-    <row r="49" s="7" customFormat="1" spans="1:1">
-      <c r="A49" s="10"/>
-    </row>
-    <row r="50" s="7" customFormat="1"/>
+    <row r="48" s="8" customFormat="1" spans="1:1">
+      <c r="A48" s="11"/>
+    </row>
+    <row r="49" s="8" customFormat="1" spans="1:1">
+      <c r="A49" s="11"/>
+    </row>
+    <row r="50" s="8" customFormat="1"/>
     <row r="51" customFormat="1"/>
     <row r="52" customFormat="1"/>
     <row r="53" customFormat="1"/>
     <row r="54" customFormat="1"/>
-    <row r="55" s="7" customFormat="1" spans="1:1">
-      <c r="A55" s="10"/>
-    </row>
-    <row r="56" s="7" customFormat="1"/>
-    <row r="57" s="7" customFormat="1"/>
+    <row r="55" s="8" customFormat="1" spans="1:1">
+      <c r="A55" s="11"/>
+    </row>
+    <row r="56" s="8" customFormat="1"/>
+    <row r="57" s="8" customFormat="1"/>
     <row r="58" customFormat="1"/>
     <row r="59" customFormat="1"/>
     <row r="60" customFormat="1"/>
-    <row r="61" s="7" customFormat="1" spans="1:1">
-      <c r="A61" s="10"/>
-    </row>
-    <row r="62" s="7" customFormat="1"/>
-    <row r="63" s="7" customFormat="1"/>
-    <row r="64" s="7" customFormat="1" spans="1:1">
-      <c r="A64" s="10"/>
+    <row r="61" s="8" customFormat="1" spans="1:1">
+      <c r="A61" s="11"/>
+    </row>
+    <row r="62" s="8" customFormat="1"/>
+    <row r="63" s="8" customFormat="1"/>
+    <row r="64" s="8" customFormat="1" spans="1:1">
+      <c r="A64" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1264,10 +1297,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1282,11 +1315,11 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
       <c r="A2" s="4" t="s">
@@ -1457,6 +1490,20 @@
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5">
+        <v>44172</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1472,10 +1519,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1491,7 +1538,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1552,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
@@ -1594,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1610,6 +1657,229 @@
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5">
+        <v>44173</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3120</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="17.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="9.14285714285714" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="5">
+        <v>44167</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1040</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:5">
+      <c r="A5" s="5">
+        <v>44172</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:5">
+      <c r="A6" s="5">
+        <v>44172</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1040</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="17.2857142857143" customWidth="1"/>
+    <col min="6" max="6" width="9.14285714285714" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:7">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="5">
+        <v>44172</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2080</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:5">
+      <c r="A5" s="5">
+        <v>44173</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/December2020/KALER.xlsx
+++ b/December2020/KALER.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="2" activeTab="3"/>
+    <workbookView windowWidth="20490" windowHeight="7830" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="RAJA MOBILE CENTER-(661032976)" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="17">
   <si>
     <t>RAJA MOBILE CENTER-(661032976)</t>
   </si>
@@ -32,10 +32,10 @@
     <t>Receive Amount</t>
   </si>
   <si>
-    <t>Dues Amount</t>
+    <t>Transaction Type</t>
   </si>
   <si>
-    <t>Transaction Type</t>
+    <t>Dues Amount</t>
   </si>
   <si>
     <t>Remarks</t>
@@ -77,10 +77,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -98,14 +98,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,9 +120,56 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,37 +181,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -173,9 +189,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,15 +214,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,28 +234,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -268,13 +268,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -286,169 +316,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,11 +462,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,41 +527,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,8 +554,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,7 +564,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,134 +582,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -719,6 +719,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -728,8 +731,8 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1068,176 +1071,188 @@
   <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D1" sqref="D$1:D$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17" style="8" customWidth="1"/>
-    <col min="2" max="2" width="18" style="8" customWidth="1"/>
-    <col min="3" max="4" width="16.8571428571429" style="8" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14" style="8" customWidth="1"/>
-    <col min="7" max="16382" width="9.14285714285714" style="8"/>
-    <col min="16383" max="16384" width="9.14285714285714" style="9"/>
+    <col min="1" max="1" width="17" style="9" customWidth="1"/>
+    <col min="2" max="2" width="18" style="9" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="9" customWidth="1"/>
+    <col min="5" max="5" width="16.8571428571429" style="9" customWidth="1"/>
+    <col min="6" max="6" width="14" style="9" customWidth="1"/>
+    <col min="7" max="16382" width="9.14285714285714" style="9"/>
+    <col min="16383" max="16384" width="9.14285714285714" style="10"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
+    <row r="3" s="2" customFormat="1" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>44167</v>
       </c>
       <c r="B4" s="1">
         <v>2080</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1">
         <v>2000</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>44168</v>
       </c>
       <c r="C5" s="1">
         <v>2000</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>44169</v>
       </c>
       <c r="B6" s="1">
         <v>2080</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1">
         <v>2000</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>44170</v>
       </c>
       <c r="B7" s="1">
         <v>1040</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1">
         <v>3000</v>
       </c>
-      <c r="E7" s="1" t="s">
+    </row>
+    <row r="8" s="9" customFormat="1" spans="1:5">
+      <c r="A8" s="6">
+        <v>44171</v>
+      </c>
+      <c r="B8" s="9">
+        <v>3120</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" s="8" customFormat="1" spans="1:5">
-      <c r="A8" s="5">
-        <v>44171</v>
-      </c>
-      <c r="B8" s="8">
-        <v>3120</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="E8" s="9">
         <v>6000</v>
       </c>
-      <c r="E8" s="8" t="s">
+    </row>
+    <row r="9" s="9" customFormat="1" spans="1:5">
+      <c r="A9" s="6">
+        <v>44172</v>
+      </c>
+      <c r="C9" s="9">
+        <v>6000</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" s="9" customFormat="1" spans="1:5">
+      <c r="A10" s="6">
+        <v>44173</v>
+      </c>
+      <c r="B10" s="9">
+        <v>5200</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" s="8" customFormat="1" spans="1:5">
-      <c r="A9" s="5">
-        <v>44172</v>
-      </c>
-      <c r="C9" s="8">
-        <v>6000</v>
-      </c>
-      <c r="D9" s="8">
+      <c r="E10" s="9">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="11" s="9" customFormat="1" spans="1:5">
+      <c r="A11" s="6">
+        <v>44174</v>
+      </c>
+      <c r="C11" s="9">
+        <v>5000</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="9">
         <v>0</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" s="8" customFormat="1" spans="1:5">
-      <c r="A10" s="5">
-        <v>44173</v>
-      </c>
-      <c r="B10" s="8">
-        <v>5200</v>
-      </c>
-      <c r="D10" s="8">
-        <v>5000</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" s="8" customFormat="1" spans="1:1">
-      <c r="A11" s="11"/>
-    </row>
-    <row r="12" s="8" customFormat="1" spans="1:1">
-      <c r="A12" s="11"/>
-    </row>
-    <row r="13" s="8" customFormat="1"/>
-    <row r="14" s="8" customFormat="1"/>
-    <row r="15" s="8" customFormat="1"/>
-    <row r="16" s="9" customFormat="1"/>
-    <row r="17" s="9" customFormat="1"/>
-    <row r="18" s="9" customFormat="1"/>
-    <row r="19" s="9" customFormat="1"/>
-    <row r="20" s="9" customFormat="1"/>
-    <row r="21" s="9" customFormat="1"/>
-    <row r="22" s="9" customFormat="1"/>
-    <row r="23" s="9" customFormat="1"/>
-    <row r="24" s="9" customFormat="1"/>
-    <row r="25" s="8" customFormat="1"/>
-    <row r="26" s="8" customFormat="1"/>
-    <row r="27" s="8" customFormat="1"/>
+    </row>
+    <row r="12" s="9" customFormat="1" spans="1:1">
+      <c r="A12" s="6"/>
+    </row>
+    <row r="13" s="9" customFormat="1"/>
+    <row r="14" s="9" customFormat="1"/>
+    <row r="15" s="9" customFormat="1"/>
+    <row r="16" s="10" customFormat="1"/>
+    <row r="17" s="10" customFormat="1"/>
+    <row r="18" s="10" customFormat="1"/>
+    <row r="19" s="10" customFormat="1"/>
+    <row r="20" s="10" customFormat="1"/>
+    <row r="21" s="10" customFormat="1"/>
+    <row r="22" s="10" customFormat="1"/>
+    <row r="23" s="10" customFormat="1"/>
+    <row r="24" s="10" customFormat="1"/>
+    <row r="25" s="9" customFormat="1"/>
+    <row r="26" s="9" customFormat="1"/>
+    <row r="27" s="9" customFormat="1"/>
     <row r="28" customFormat="1"/>
     <row r="29" customFormat="1"/>
     <row r="30" customFormat="1"/>
@@ -1250,40 +1265,40 @@
     <row r="37" customFormat="1"/>
     <row r="38" customFormat="1"/>
     <row r="39" customFormat="1"/>
-    <row r="40" s="8" customFormat="1"/>
-    <row r="41" s="8" customFormat="1"/>
-    <row r="42" s="8" customFormat="1"/>
+    <row r="40" s="9" customFormat="1"/>
+    <row r="41" s="9" customFormat="1"/>
+    <row r="42" s="9" customFormat="1"/>
     <row r="43" customFormat="1"/>
     <row r="44" customFormat="1"/>
     <row r="45" customFormat="1"/>
     <row r="46" customFormat="1"/>
     <row r="47" customFormat="1"/>
-    <row r="48" s="8" customFormat="1" spans="1:1">
-      <c r="A48" s="11"/>
-    </row>
-    <row r="49" s="8" customFormat="1" spans="1:1">
-      <c r="A49" s="11"/>
-    </row>
-    <row r="50" s="8" customFormat="1"/>
+    <row r="48" s="9" customFormat="1" spans="1:1">
+      <c r="A48" s="12"/>
+    </row>
+    <row r="49" s="9" customFormat="1" spans="1:1">
+      <c r="A49" s="12"/>
+    </row>
+    <row r="50" s="9" customFormat="1"/>
     <row r="51" customFormat="1"/>
     <row r="52" customFormat="1"/>
     <row r="53" customFormat="1"/>
     <row r="54" customFormat="1"/>
-    <row r="55" s="8" customFormat="1" spans="1:1">
-      <c r="A55" s="11"/>
-    </row>
-    <row r="56" s="8" customFormat="1"/>
-    <row r="57" s="8" customFormat="1"/>
+    <row r="55" s="9" customFormat="1" spans="1:1">
+      <c r="A55" s="12"/>
+    </row>
+    <row r="56" s="9" customFormat="1"/>
+    <row r="57" s="9" customFormat="1"/>
     <row r="58" customFormat="1"/>
     <row r="59" customFormat="1"/>
     <row r="60" customFormat="1"/>
-    <row r="61" s="8" customFormat="1" spans="1:1">
-      <c r="A61" s="11"/>
-    </row>
-    <row r="62" s="8" customFormat="1"/>
-    <row r="63" s="8" customFormat="1"/>
-    <row r="64" s="8" customFormat="1" spans="1:1">
-      <c r="A64" s="11"/>
+    <row r="61" s="9" customFormat="1" spans="1:1">
+      <c r="A61" s="12"/>
+    </row>
+    <row r="62" s="9" customFormat="1"/>
+    <row r="63" s="9" customFormat="1"/>
+    <row r="64" s="9" customFormat="1" spans="1:1">
+      <c r="A64" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1297,10 +1312,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1308,202 +1323,230 @@
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.8571428571429" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.14285714285714" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
+    <row r="3" s="2" customFormat="1" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>44167</v>
       </c>
       <c r="B4" s="1">
         <v>2080</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1">
         <v>2000</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>44168</v>
       </c>
       <c r="C5" s="1">
         <v>2000</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>44169</v>
       </c>
       <c r="B6" s="1">
         <v>1040</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1">
         <v>1000</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>44169</v>
       </c>
       <c r="B7" s="1">
         <v>1040</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1">
         <v>2000</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:5">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>44170</v>
       </c>
       <c r="B8" s="1">
         <v>1040</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1">
         <v>3000</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:5">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>44170</v>
       </c>
       <c r="B9" s="1">
         <v>1040</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1">
         <v>4000</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:5">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>44170</v>
       </c>
       <c r="B10" s="1">
         <v>1040</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1">
         <v>5000</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>44171</v>
       </c>
       <c r="C11" s="1">
         <v>4000</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
         <v>1000</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <v>44171</v>
       </c>
       <c r="B12" s="1">
         <v>2080</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1">
         <v>3000</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>44172</v>
       </c>
       <c r="B13" s="1">
         <v>5200</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1">
         <v>8000</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="5">
+      <c r="A14" s="6">
         <v>44172</v>
       </c>
       <c r="C14" s="1">
         <v>5000</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1">
         <v>3000</v>
       </c>
-      <c r="E14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6">
+        <v>44174</v>
+      </c>
+      <c r="B15" s="1">
+        <v>5200</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6">
+        <v>44174</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
@@ -1519,10 +1562,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1530,146 +1573,160 @@
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.8571428571429" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.14285714285714" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
+    <row r="3" s="2" customFormat="1" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>44167</v>
       </c>
       <c r="B4" s="1">
         <v>2080</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1">
         <v>2000</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>44168</v>
       </c>
       <c r="C5" s="1">
         <v>2000</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>44169</v>
       </c>
       <c r="B6" s="1">
         <v>1040</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1">
         <v>1000</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>44170</v>
       </c>
       <c r="B7" s="1">
         <v>1040</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1">
         <v>2000</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>44171</v>
       </c>
       <c r="C8" s="1">
         <v>2000</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>44171</v>
       </c>
       <c r="B9" s="1">
         <v>2080</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1">
         <v>2000</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>44173</v>
       </c>
       <c r="B10" s="1">
         <v>3120</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1">
         <v>5000</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>11</v>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6">
+        <v>44174</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1685,101 +1742,129 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="16.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="9.14285714285714" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
+    <row r="3" s="2" customFormat="1" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>44167</v>
       </c>
       <c r="B4" s="1">
         <v>1040</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1">
         <v>1000</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>44172</v>
       </c>
       <c r="C5" s="1">
         <v>1000</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>44172</v>
       </c>
       <c r="B6" s="1">
         <v>1040</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1">
         <v>1000</v>
       </c>
-      <c r="E6" s="1" t="s">
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:5">
+      <c r="A7" s="6">
+        <v>44174</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:5">
+      <c r="A8" s="6">
+        <v>44174</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1040</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -1797,89 +1882,104 @@
   <sheetPr/>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="16.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="17.2857142857143" customWidth="1"/>
-    <col min="6" max="6" width="9.14285714285714" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="1" max="1" width="17" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.2857142857143" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.14285714285714" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:4">
+    <row r="3" s="2" customFormat="1" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>44172</v>
       </c>
       <c r="B4" s="1">
         <v>2080</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1">
         <v>2000</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>44173</v>
       </c>
       <c r="C5" s="1">
         <v>2000</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="6">
+        <v>44175</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1040</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="6"/>
+      <c r="A8" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
